--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/be52199d604fa2c0/Documents/Uni/25 SS/xAI-Proj/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="110" documentId="8_{633C34D0-72DC-407B-B8DA-0E127AFD5C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8D3C0AA-C2BE-432A-A590-C622EA93BEF2}"/>
+  <xr:revisionPtr revIDLastSave="199" documentId="8_{633C34D0-72DC-407B-B8DA-0E127AFD5C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A8E145A-C93E-4CA2-BF43-A2DC6440182B}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="336">
   <si>
     <t>Optimizer</t>
   </si>
@@ -841,6 +841,198 @@
   </si>
   <si>
     <t>total: 0.7053, std: 0.0155</t>
+  </si>
+  <si>
+    <t>resnet50_ms1_a0d1_fr1</t>
+  </si>
+  <si>
+    <t>art painting: 0.8737, std: 0.0020</t>
+  </si>
+  <si>
+    <t>cartoon: 0.7681, std: 0.0153</t>
+  </si>
+  <si>
+    <t>photo: 0.9823, std: 0.0013</t>
+  </si>
+  <si>
+    <t>sketch: 0.7310, std: 0.0064</t>
+  </si>
+  <si>
+    <t>total: 0.8390, std: 0.0064</t>
+  </si>
+  <si>
+    <t>art painting: 0.8716</t>
+  </si>
+  <si>
+    <t>cartoon: 0.7466</t>
+  </si>
+  <si>
+    <t>photo: 0.9820</t>
+  </si>
+  <si>
+    <t>sketch: 0.7145</t>
+  </si>
+  <si>
+    <t>total: 0.7310, std: 0.0128</t>
+  </si>
+  <si>
+    <t>resnet50_ms12_a0d1_fr1</t>
+  </si>
+  <si>
+    <t>art painting: 0.8923, std: 0.0078</t>
+  </si>
+  <si>
+    <t>cartoon: 0.7543, std: 0.0145</t>
+  </si>
+  <si>
+    <t>photo: 0.9822, std: 0.0033</t>
+  </si>
+  <si>
+    <t>sketch: 0.7472, std: 0.0031</t>
+  </si>
+  <si>
+    <t>total: 0.8440, std: 0.0023</t>
+  </si>
+  <si>
+    <t>art painting: 0.8862</t>
+  </si>
+  <si>
+    <t>cartoon: 0.7372</t>
+  </si>
+  <si>
+    <t>sketch: 0.7446</t>
+  </si>
+  <si>
+    <t>total: 0.7424, std: 0.0037</t>
+  </si>
+  <si>
+    <t>resnet50_fc512_ms12_a0d1_fr1</t>
+  </si>
+  <si>
+    <t>art painting: 0.8911, std: 0.0029</t>
+  </si>
+  <si>
+    <t>cartoon: 0.7670, std: 0.0096</t>
+  </si>
+  <si>
+    <t>photo: 0.9810, std: 0.0006</t>
+  </si>
+  <si>
+    <t>total: 0.7514, std: 0.0075</t>
+  </si>
+  <si>
+    <t>sketch: 0.7514, std: 0.0075</t>
+  </si>
+  <si>
+    <t>total: 0.8476, std: 0.0049</t>
+  </si>
+  <si>
+    <t>art painting: 0.8872</t>
+  </si>
+  <si>
+    <t>cartoon: 0.7547</t>
+  </si>
+  <si>
+    <t>photo: 0.9802</t>
+  </si>
+  <si>
+    <t>sketch: 0.7426</t>
+  </si>
+  <si>
+    <t>art patining: 0.8169, std: 0.0079</t>
+  </si>
+  <si>
+    <t>cartoon: 0.7323, std: 0.0138</t>
+  </si>
+  <si>
+    <t>photo: 0.9569, std: 0.0007</t>
+  </si>
+  <si>
+    <t>sketch: 0.6761, std: 0.0102</t>
+  </si>
+  <si>
+    <t>total: 0.7956, std: 0.0032</t>
+  </si>
+  <si>
+    <t>art painting: 0.8057</t>
+  </si>
+  <si>
+    <t>cartoon: 0.7128</t>
+  </si>
+  <si>
+    <t>photo: 0.9561</t>
+  </si>
+  <si>
+    <t>sketch: 0.6638</t>
+  </si>
+  <si>
+    <t>total: 0.6761, std: 0.0102</t>
+  </si>
+  <si>
+    <t>resnet18_fc512_ms12_a0d1_fr1</t>
+  </si>
+  <si>
+    <t>art painting: 0.8761, std: 0.0053</t>
+  </si>
+  <si>
+    <t>cartoon: 0.7457, std: 0.0279</t>
+  </si>
+  <si>
+    <t>photo: 0.9828, std: 0.0003</t>
+  </si>
+  <si>
+    <t>sketch: 0.7379, std: 0.0090</t>
+  </si>
+  <si>
+    <t>total: 0.8356, std: 0.0067</t>
+  </si>
+  <si>
+    <t>art painting: 0.8706</t>
+  </si>
+  <si>
+    <t>cartoon: 0.7068</t>
+  </si>
+  <si>
+    <t>photo: 0.9826</t>
+  </si>
+  <si>
+    <t>sketch: 0.7283</t>
+  </si>
+  <si>
+    <t>total: 0.7284, std: 0.0177</t>
+  </si>
+  <si>
+    <t>resnet50_fc512_ms2_a0d1_fr12</t>
+  </si>
+  <si>
+    <t>resnet50_fc512_fr12</t>
+  </si>
+  <si>
+    <t>art painting: 0.8413, std: 0.0038</t>
+  </si>
+  <si>
+    <t>cartoon: 0.7245, std: 0.0115</t>
+  </si>
+  <si>
+    <t>photo: 0.9774, std: 0.0012</t>
+  </si>
+  <si>
+    <t>sketch: 0.7083, std: 0.0086</t>
+  </si>
+  <si>
+    <t>total: 0.8129, std: 0.0015</t>
+  </si>
+  <si>
+    <t>art painting: 0.8379</t>
+  </si>
+  <si>
+    <t>cartoon: 0.7102</t>
+  </si>
+  <si>
+    <t>sketch: 0.6969</t>
+  </si>
+  <si>
+    <t>total: 0.7058, std: 0.0062</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1077,9 +1269,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1360,10 +1551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G249"/>
+  <dimension ref="A1:G279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A219" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C249" sqref="C249"/>
+    <sheetView tabSelected="1" topLeftCell="A245" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C279" sqref="C279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3489,11 +3680,11 @@
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239" s="22"/>
-      <c r="B239" s="22" t="s">
+      <c r="A239" s="16"/>
+      <c r="B239" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="C239" s="22" t="s">
+      <c r="C239" s="16" t="s">
         <v>250</v>
       </c>
     </row>
@@ -3501,43 +3692,43 @@
       <c r="A240" t="s">
         <v>251</v>
       </c>
-      <c r="B240" s="23" t="s">
+      <c r="B240" t="s">
         <v>253</v>
       </c>
-      <c r="C240" s="23" t="s">
+      <c r="C240" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B241" s="23" t="s">
+      <c r="B241" t="s">
         <v>254</v>
       </c>
-      <c r="C241" s="23" t="s">
+      <c r="C241" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B242" s="23" t="s">
+      <c r="B242" t="s">
         <v>255</v>
       </c>
-      <c r="C242" s="23" t="s">
+      <c r="C242" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B243" s="23" t="s">
+      <c r="B243" t="s">
         <v>256</v>
       </c>
-      <c r="C243" s="23" t="s">
+      <c r="C243" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="16"/>
-      <c r="B244" s="24" t="s">
+      <c r="B244" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="C244" s="24" t="s">
+      <c r="C244" s="16" t="s">
         <v>262</v>
       </c>
     </row>
@@ -3545,43 +3736,307 @@
       <c r="A245" t="s">
         <v>263</v>
       </c>
-      <c r="B245" s="23" t="s">
+      <c r="B245" t="s">
         <v>264</v>
       </c>
-      <c r="C245" s="23" t="s">
+      <c r="C245" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B246" s="23" t="s">
+      <c r="B246" t="s">
         <v>265</v>
       </c>
-      <c r="C246" s="23" t="s">
+      <c r="C246" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B247" s="23" t="s">
+      <c r="B247" t="s">
         <v>266</v>
       </c>
-      <c r="C247" s="23" t="s">
+      <c r="C247" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B248" s="23" t="s">
+      <c r="B248" t="s">
         <v>267</v>
       </c>
-      <c r="C248" s="23" t="s">
+      <c r="C248" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B249" s="23" t="s">
+      <c r="A249" s="16"/>
+      <c r="B249" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="C249" s="23" t="s">
+      <c r="C249" s="16" t="s">
         <v>271</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>272</v>
+      </c>
+      <c r="B250" t="s">
+        <v>273</v>
+      </c>
+      <c r="C250" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B251" t="s">
+        <v>274</v>
+      </c>
+      <c r="C251" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B252" t="s">
+        <v>275</v>
+      </c>
+      <c r="C252" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B253" t="s">
+        <v>276</v>
+      </c>
+      <c r="C253" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="16"/>
+      <c r="B254" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="C254" s="16" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>283</v>
+      </c>
+      <c r="B255" t="s">
+        <v>284</v>
+      </c>
+      <c r="C255" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B256" t="s">
+        <v>285</v>
+      </c>
+      <c r="C256" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B257" t="s">
+        <v>286</v>
+      </c>
+      <c r="C257" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B258" t="s">
+        <v>287</v>
+      </c>
+      <c r="C258" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="16"/>
+      <c r="B259" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="C259" s="16" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>293</v>
+      </c>
+      <c r="B260" t="s">
+        <v>294</v>
+      </c>
+      <c r="C260" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B261" t="s">
+        <v>295</v>
+      </c>
+      <c r="C261" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B262" t="s">
+        <v>296</v>
+      </c>
+      <c r="C262" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B263" t="s">
+        <v>298</v>
+      </c>
+      <c r="C263" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="16"/>
+      <c r="B264" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="C264" s="16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>314</v>
+      </c>
+      <c r="B265" t="s">
+        <v>304</v>
+      </c>
+      <c r="C265" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B266" t="s">
+        <v>305</v>
+      </c>
+      <c r="C266" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B267" t="s">
+        <v>306</v>
+      </c>
+      <c r="C267" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B268" t="s">
+        <v>307</v>
+      </c>
+      <c r="C268" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="16"/>
+      <c r="B269" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="C269" s="16" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>325</v>
+      </c>
+      <c r="B270" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="C270" s="22" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B271" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="C271" s="22" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B272" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="C272" s="22" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B273" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="C273" s="22" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="16"/>
+      <c r="B274" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="C274" s="23" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>326</v>
+      </c>
+      <c r="B275" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="C275" s="22" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B276" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="C276" s="22" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B277" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="C277" s="22" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B278" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="C278" s="22" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B279" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="C279" s="22" t="s">
+        <v>335</v>
       </c>
     </row>
   </sheetData>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/be52199d604fa2c0/Documents/Uni/25 SS/xAI-Proj/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="199" documentId="8_{633C34D0-72DC-407B-B8DA-0E127AFD5C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A8E145A-C93E-4CA2-BF43-A2DC6440182B}"/>
+  <xr:revisionPtr revIDLastSave="223" documentId="8_{633C34D0-72DC-407B-B8DA-0E127AFD5C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90CD1A1B-EE25-4559-ADF8-4BC423BDA863}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="356">
   <si>
     <t>Optimizer</t>
   </si>
@@ -1033,6 +1033,66 @@
   </si>
   <si>
     <t>total: 0.7058, std: 0.0062</t>
+  </si>
+  <si>
+    <t>resnet50_fc512_fr123</t>
+  </si>
+  <si>
+    <t>art painting: 0.7402, std: 0.0120</t>
+  </si>
+  <si>
+    <t>cartoon: 0.6356, std: 0.0202</t>
+  </si>
+  <si>
+    <t>photo: 0.9655, std: 0.0014</t>
+  </si>
+  <si>
+    <t>sketch: 0.5706, std: 0.0313</t>
+  </si>
+  <si>
+    <t>total: 0.7280, std: 0.0135</t>
+  </si>
+  <si>
+    <t>art painting: 0.7261</t>
+  </si>
+  <si>
+    <t>cartoon: 0.6152</t>
+  </si>
+  <si>
+    <t>photo: 0.9645</t>
+  </si>
+  <si>
+    <t>sketch: 0.5268</t>
+  </si>
+  <si>
+    <t>total: 0.5706, std: 0.0313</t>
+  </si>
+  <si>
+    <t>resnet50_fc512_fr1</t>
+  </si>
+  <si>
+    <t>art painting: 0.8524, std: 0.0058</t>
+  </si>
+  <si>
+    <t>cartoon: 0.7190, std: 0.0190</t>
+  </si>
+  <si>
+    <t>sketch: 0.6884, std: 0.0102</t>
+  </si>
+  <si>
+    <t>total: 0.8103, std: 0.0081</t>
+  </si>
+  <si>
+    <t>art painting: 0.8442</t>
+  </si>
+  <si>
+    <t>cartoon: 0.6973</t>
+  </si>
+  <si>
+    <t>sketch: 0.6788</t>
+  </si>
+  <si>
+    <t>total: 0.6884, std: 0.0102</t>
   </si>
 </sst>
 </file>
@@ -1551,10 +1611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G279"/>
+  <dimension ref="A1:G289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A245" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C279" sqref="C279"/>
+    <sheetView tabSelected="1" topLeftCell="A263" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C289" sqref="C289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3956,43 +4016,43 @@
       <c r="A270" t="s">
         <v>325</v>
       </c>
-      <c r="B270" s="22" t="s">
+      <c r="B270" t="s">
         <v>315</v>
       </c>
-      <c r="C270" s="22" t="s">
+      <c r="C270" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B271" s="22" t="s">
+      <c r="B271" t="s">
         <v>316</v>
       </c>
-      <c r="C271" s="22" t="s">
+      <c r="C271" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B272" s="22" t="s">
+      <c r="B272" t="s">
         <v>317</v>
       </c>
-      <c r="C272" s="22" t="s">
+      <c r="C272" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B273" s="22" t="s">
+      <c r="B273" t="s">
         <v>318</v>
       </c>
-      <c r="C273" s="22" t="s">
+      <c r="C273" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="16"/>
-      <c r="B274" s="23" t="s">
+      <c r="B274" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="C274" s="23" t="s">
+      <c r="C274" s="16" t="s">
         <v>324</v>
       </c>
     </row>
@@ -4000,43 +4060,131 @@
       <c r="A275" t="s">
         <v>326</v>
       </c>
-      <c r="B275" s="22" t="s">
+      <c r="B275" t="s">
         <v>327</v>
       </c>
-      <c r="C275" s="22" t="s">
+      <c r="C275" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B276" s="22" t="s">
+      <c r="B276" t="s">
         <v>328</v>
       </c>
-      <c r="C276" s="22" t="s">
+      <c r="C276" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B277" s="22" t="s">
+      <c r="B277" t="s">
         <v>329</v>
       </c>
-      <c r="C277" s="22" t="s">
+      <c r="C277" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B278" s="22" t="s">
+      <c r="B278" t="s">
         <v>330</v>
       </c>
-      <c r="C278" s="22" t="s">
+      <c r="C278" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B279" s="22" t="s">
+      <c r="A279" s="16"/>
+      <c r="B279" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="C279" s="22" t="s">
+      <c r="C279" s="16" t="s">
         <v>335</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>336</v>
+      </c>
+      <c r="B280" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="C280" s="22" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B281" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="C281" s="22" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B282" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="C282" s="22" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B283" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="C283" s="22" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="16"/>
+      <c r="B284" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="C284" s="23" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>347</v>
+      </c>
+      <c r="B285" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="C285" s="22" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B286" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="C286" s="22" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B287" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="C287" s="22" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B288" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="C288" s="22" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="289" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B289" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="C289" s="22" t="s">
+        <v>355</v>
       </c>
     </row>
   </sheetData>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/be52199d604fa2c0/Documents/Uni/25 SS/xAI-Proj/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="223" documentId="8_{633C34D0-72DC-407B-B8DA-0E127AFD5C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90CD1A1B-EE25-4559-ADF8-4BC423BDA863}"/>
+  <xr:revisionPtr revIDLastSave="251" documentId="8_{633C34D0-72DC-407B-B8DA-0E127AFD5C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1496798F-0B77-46FA-896C-EBD054EFAADD}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="374">
   <si>
     <t>Optimizer</t>
   </si>
@@ -1093,6 +1093,60 @@
   </si>
   <si>
     <t>total: 0.6884, std: 0.0102</t>
+  </si>
+  <si>
+    <t>art painting: 0.8698, std: 0.0069</t>
+  </si>
+  <si>
+    <t>cartoon: 0.7587, std: 0.0095</t>
+  </si>
+  <si>
+    <t>photo: 0.9800, std: 0.0022</t>
+  </si>
+  <si>
+    <t>sketch: 0.7413, std: 0.0224</t>
+  </si>
+  <si>
+    <t>total: 0.8374, std: 0.0016</t>
+  </si>
+  <si>
+    <t>photo: 0.9772</t>
+  </si>
+  <si>
+    <t>sketch: 0.7097</t>
+  </si>
+  <si>
+    <t>total: 0.7376, std: 0.0200</t>
+  </si>
+  <si>
+    <t>resnet50_ms12_a0d1</t>
+  </si>
+  <si>
+    <t>art painting: 0.8988, std: 0.0027</t>
+  </si>
+  <si>
+    <t>cartoon: 0.7651, std: 0.0051</t>
+  </si>
+  <si>
+    <t>photo: 0.9794, std: 0.0028</t>
+  </si>
+  <si>
+    <t>sketch: 0.7204, std: 0.0206</t>
+  </si>
+  <si>
+    <t>total: 0.8409, std: 0.0044</t>
+  </si>
+  <si>
+    <t>art painting: 0.8960</t>
+  </si>
+  <si>
+    <t>cartoon: 0.7607</t>
+  </si>
+  <si>
+    <t>sketch: 0.7041</t>
+  </si>
+  <si>
+    <t>total: 0.7204, std: 0.0206</t>
   </si>
 </sst>
 </file>
@@ -1611,10 +1665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G289"/>
+  <dimension ref="A1:G299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A263" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C289" sqref="C289"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1622,7 +1676,7 @@
     <col min="1" max="1" width="48" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
     <col min="3" max="3" width="93" customWidth="1"/>
-    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" customWidth="1"/>
     <col min="6" max="6" width="33.42578125" customWidth="1"/>
     <col min="7" max="7" width="59" customWidth="1"/>
   </cols>
@@ -1901,6 +1955,9 @@
       <c r="C18" t="s">
         <v>38</v>
       </c>
+      <c r="E18" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -4104,43 +4161,43 @@
       <c r="A280" t="s">
         <v>336</v>
       </c>
-      <c r="B280" s="22" t="s">
+      <c r="B280" t="s">
         <v>337</v>
       </c>
-      <c r="C280" s="22" t="s">
+      <c r="C280" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B281" s="22" t="s">
+      <c r="B281" t="s">
         <v>338</v>
       </c>
-      <c r="C281" s="22" t="s">
+      <c r="C281" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B282" s="22" t="s">
+      <c r="B282" t="s">
         <v>339</v>
       </c>
-      <c r="C282" s="22" t="s">
+      <c r="C282" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B283" s="22" t="s">
+      <c r="B283" t="s">
         <v>340</v>
       </c>
-      <c r="C283" s="22" t="s">
+      <c r="C283" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="16"/>
-      <c r="B284" s="23" t="s">
+      <c r="B284" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="C284" s="23" t="s">
+      <c r="C284" s="16" t="s">
         <v>346</v>
       </c>
     </row>
@@ -4148,43 +4205,131 @@
       <c r="A285" t="s">
         <v>347</v>
       </c>
-      <c r="B285" s="22" t="s">
+      <c r="B285" t="s">
         <v>348</v>
       </c>
-      <c r="C285" s="22" t="s">
+      <c r="C285" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B286" s="22" t="s">
+      <c r="B286" t="s">
         <v>349</v>
       </c>
-      <c r="C286" s="22" t="s">
+      <c r="C286" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B287" s="22" t="s">
+      <c r="B287" t="s">
         <v>266</v>
       </c>
-      <c r="C287" s="22" t="s">
+      <c r="C287" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B288" s="22" t="s">
+      <c r="B288" t="s">
         <v>350</v>
       </c>
-      <c r="C288" s="22" t="s">
+      <c r="C288" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="289" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B289" s="22" t="s">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="16"/>
+      <c r="B289" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="C289" s="22" t="s">
+      <c r="C289" s="16" t="s">
         <v>355</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>32</v>
+      </c>
+      <c r="B290" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="C290" s="22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B291" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="C291" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B292" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="C292" s="22" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B293" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="C293" s="22" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="16"/>
+      <c r="B294" s="23" t="s">
+        <v>360</v>
+      </c>
+      <c r="C294" s="23" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>364</v>
+      </c>
+      <c r="B295" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="C295" s="22" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B296" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="C296" s="22" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B297" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="C297" s="22" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B298" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="C298" s="22" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B299" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="C299" s="22" t="s">
+        <v>373</v>
       </c>
     </row>
   </sheetData>
